--- a/employees_export.xlsx
+++ b/employees_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,217 +436,301 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>salary</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>position</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>salary</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Lin</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CEO</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>90000</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Cheng</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>General Manager</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>90000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>90000</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Alan</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>General Manager</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>90000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>60000</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Debbie</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Human Resources</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>60000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>70000</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Prime</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>80000</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rick</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>70000</v>
+      </c>
+      <c r="B7" t="n">
+        <v>28</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bob</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>22</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>85000</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Charlie</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CTO</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>85000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>70000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>David</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Intern</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E9" t="n">
-        <v>16</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Rick</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>65000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Eve</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Analyst</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>70000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Jim</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>70000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>23</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bronny</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>80000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>lebron</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>65000</v>
       </c>
-      <c r="E10" t="n">
-        <v>23</v>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RDSS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>16</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/employees_export.xlsx
+++ b/employees_export.xlsx
@@ -436,301 +436,301 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>salary</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>position</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>100000</v>
-      </c>
-      <c r="B2" t="n">
-        <v>24</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CEO</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Lin</t>
-        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cheng</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>90000</v>
-      </c>
-      <c r="B3" t="n">
-        <v>25</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>General Manager</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Cheng</t>
-        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alan</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>90000</v>
-      </c>
-      <c r="B4" t="n">
-        <v>31</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>General Manager</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Alan</t>
-        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Debbie</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>60000</v>
-      </c>
-      <c r="B5" t="n">
-        <v>18</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Human Resources</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Debbie</t>
-        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rick</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>70000</v>
-      </c>
-      <c r="B6" t="n">
-        <v>29</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Rick</t>
-        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>70000</v>
-      </c>
-      <c r="B7" t="n">
-        <v>28</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Alice</t>
-        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charlie</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>85000</v>
-      </c>
-      <c r="B8" t="n">
-        <v>40</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CTO</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Charlie</t>
-        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rick</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>70000</v>
-      </c>
-      <c r="B9" t="n">
-        <v>26</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Rick</t>
-        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eve</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>65000</v>
-      </c>
-      <c r="B10" t="n">
-        <v>23</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Analyst</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Eve</t>
-        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jim</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>70000</v>
-      </c>
-      <c r="B11" t="n">
-        <v>18</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Jim</t>
-        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bronny</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>70000</v>
-      </c>
-      <c r="B12" t="n">
-        <v>23</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>11</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Bronny</t>
-        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80000</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Player</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>lebron</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>29</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>70000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65000</v>
-      </c>
-      <c r="B14" t="n">
-        <v>24</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>RDSS</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>16</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Mike</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Frank</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>29</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>70000</v>
       </c>
     </row>
   </sheetData>

--- a/employees_export.xlsx
+++ b/employees_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lin</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -474,263 +474,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>RDSS</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cheng</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>General Manager</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Alan</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>General Manager</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Debbie</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Human Resources</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rick</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>29</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>28</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Charlie</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>40</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CTO</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Rick</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>26</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Eve</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>23</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Analyst</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
         <v>65000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Jim</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>18</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Bronny</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>23</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Jimmy</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>29</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Frank</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>29</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>70000</v>
       </c>
     </row>
   </sheetData>

--- a/employees_export.xlsx
+++ b/employees_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,27 @@
         <v>65000</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
